--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/23.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/23.xlsx
@@ -479,13 +479,13 @@
         <v>-9.476764205136153</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.60467303881397</v>
+        <v>-21.61483239508341</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06325410554808109</v>
+        <v>-0.06251097650431002</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.93086142565541</v>
+        <v>-8.928333809105215</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.956682943706216</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.7509765693064</v>
+        <v>-21.76109681352091</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1961275341770956</v>
+        <v>-0.1956728565384725</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.440806933343323</v>
+        <v>-8.438362429909866</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.301038673104106</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.9296453252578</v>
+        <v>-21.9381570862131</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3553771548531162</v>
+        <v>-0.3553820438599831</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.335248386079764</v>
+        <v>-8.33294077483858</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.562996206635845</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.04805707157448</v>
+        <v>-22.05607504283622</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3833129400906682</v>
+        <v>-0.383264050021999</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.804038233961986</v>
+        <v>-7.800884824532826</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.753155669167153</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.97740114433383</v>
+        <v>-21.98341462278013</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5058607862167582</v>
+        <v>-0.5057238940244846</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.110772171226579</v>
+        <v>-7.107516092653214</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.907027418200505</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.24713254218839</v>
+        <v>-22.25285268022268</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6556844016533668</v>
+        <v>-0.6563346395666665</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.518869887862921</v>
+        <v>-6.515330246891274</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.050154054237973</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.6339067644369</v>
+        <v>-22.6397589056566</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8251862697293081</v>
+        <v>-0.8260907359996874</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.09720282360524</v>
+        <v>-6.09417652835462</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.206386965827162</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.90277280807602</v>
+        <v>-22.90815071562963</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9547156176613527</v>
+        <v>-0.9559232023574807</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.771262513801754</v>
+        <v>-5.767732650843842</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.394372018382346</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.34838622796785</v>
+        <v>-23.35323612277983</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.053297552125826</v>
+        <v>-1.054510025828821</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.468192978121697</v>
+        <v>-5.46549424633116</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.636590491357334</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.75933658917326</v>
+        <v>-23.76325757268052</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.315905666975295</v>
+        <v>-1.317411481090305</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.078172455313557</v>
+        <v>-5.07475992852045</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.94257614949578</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.22464292872502</v>
+        <v>-24.22838301897821</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.236953095081486</v>
+        <v>-1.238165568784481</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.919406846317361</v>
+        <v>-4.916708114526823</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.315594679378473</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.80935837199431</v>
+        <v>-24.81289312395909</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.168262548601331</v>
+        <v>-1.170003035045952</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.847416220202038</v>
+        <v>-4.84574906886042</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.7675766866430185</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.4104324322403</v>
+        <v>-25.4136836218068</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.102373403055918</v>
+        <v>-1.104148112548608</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.719187348096593</v>
+        <v>-4.717441972645104</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.2981602718874781</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.02305921571281</v>
+        <v>-26.02630551627244</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.059589703963545</v>
+        <v>-1.061608863799581</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.737907355390011</v>
+        <v>-4.737046890181433</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.09874956976211825</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.79460561189783</v>
+        <v>-26.79838236970252</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9669968029110431</v>
+        <v>-0.968786179424334</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.693006716324263</v>
+        <v>-4.692732931939716</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.427430522129372</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.55303969166578</v>
+        <v>-27.55601220784086</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8433147071918288</v>
+        <v>-0.8450551936364504</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.723426117050209</v>
+        <v>-4.723787903558359</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6985911166006059</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.43699657823834</v>
+        <v>-28.44067800040912</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6750253128188823</v>
+        <v>-0.6762231195012766</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.978294934029352</v>
+        <v>-4.97978608112376</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9237445937444756</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.08636913732258</v>
+        <v>-29.08953232476548</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4231143449942227</v>
+        <v>-0.4244881559238259</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.27259848039703</v>
+        <v>-5.275781223867392</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.112636073745068</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.5094197905236</v>
+        <v>-29.51237275067122</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2192280916232687</v>
+        <v>-0.2206507926215409</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.59716986827778</v>
+        <v>-5.599741485889777</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.273938099375039</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.10544350667606</v>
+        <v>-30.10857736007776</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1927587390379202</v>
+        <v>0.1916538234859974</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.927881848783374</v>
+        <v>-5.930517023484642</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.415680775707856</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.65957576748937</v>
+        <v>-30.66310563044729</v>
       </c>
       <c r="F22" t="n">
-        <v>0.250478354108718</v>
+        <v>0.249735225064947</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.19716834701305</v>
+        <v>-6.200395091545214</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.54544942390209</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.9849856200478</v>
+        <v>-30.9882808106761</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5351750019829093</v>
+        <v>0.5343389818086669</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.495285318736923</v>
+        <v>-6.498433839159216</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.670582635061312</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.18895743103892</v>
+        <v>-31.19268040976808</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7264182835960213</v>
+        <v>0.725347591092167</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.757223639645625</v>
+        <v>-6.760817059692807</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.797992688243856</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.48614304695465</v>
+        <v>-31.48975846753273</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9659845090817207</v>
+        <v>0.9654076062714247</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.814904142661487</v>
+        <v>-6.818605120859742</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.933697114136561</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.39916028128193</v>
+        <v>-31.40258991959907</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9989999724539973</v>
+        <v>0.9985990738909103</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.99657474882918</v>
+        <v>-7.000686403604256</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.085536477042009</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.49792066449705</v>
+        <v>-31.50145052745496</v>
       </c>
       <c r="F27" t="n">
-        <v>1.243567651964551</v>
+        <v>1.243000527167988</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.254171631640062</v>
+        <v>-7.258410400593677</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.257620288609903</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.31850633499844</v>
+        <v>-31.32261065626321</v>
       </c>
       <c r="F28" t="n">
-        <v>1.40193236239766</v>
+        <v>1.401731913116116</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.438707195831767</v>
+        <v>-7.443366419375937</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.44749543185742</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.12309517503128</v>
+        <v>-31.12682793177417</v>
       </c>
       <c r="F29" t="n">
-        <v>1.422519970314239</v>
+        <v>1.422363522094497</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.742558972610531</v>
+        <v>-7.747467535504914</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.653429058738341</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.01548324488362</v>
+        <v>-31.02003002126985</v>
       </c>
       <c r="F30" t="n">
-        <v>1.551179075023972</v>
+        <v>1.55132574522998</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.784829325981877</v>
+        <v>-7.790045896308875</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.86789333094093</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.73388133835618</v>
+        <v>-30.73797832611065</v>
       </c>
       <c r="F31" t="n">
-        <v>1.456459455984362</v>
+        <v>1.455921665229001</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.72588745919435</v>
+        <v>-7.730492903662984</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>3.076850058461263</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.32570548854775</v>
+        <v>-30.33004692664557</v>
       </c>
       <c r="F32" t="n">
-        <v>1.434654485357922</v>
+        <v>1.434742487481526</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.721145122533443</v>
+        <v>-7.725232332274184</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>3.265566443233516</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.83250980932367</v>
+        <v>-29.83682924689059</v>
       </c>
       <c r="F33" t="n">
-        <v>1.375394833124045</v>
+        <v>1.375062380657095</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.971408495043953</v>
+        <v>-7.976028606533187</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>3.415992059724175</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.25847195705172</v>
+        <v>-29.26316051463709</v>
       </c>
       <c r="F34" t="n">
-        <v>1.376475303641634</v>
+        <v>1.376367745490561</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.982086086041295</v>
+        <v>-7.986803977667868</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>3.507515695960729</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.77750368400179</v>
+        <v>-28.78199179230562</v>
       </c>
       <c r="F35" t="n">
-        <v>1.392848587638932</v>
+        <v>1.39275569650846</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.956736585436341</v>
+        <v>-7.960760238087811</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>3.520006475138825</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.14655290279208</v>
+        <v>-28.15044944126502</v>
       </c>
       <c r="F36" t="n">
-        <v>1.319831270081557</v>
+        <v>1.319625931793146</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.781284796003364</v>
+        <v>-7.784516429542395</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>3.435795256481188</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.50456274407688</v>
+        <v>-27.50822705472364</v>
       </c>
       <c r="F37" t="n">
-        <v>1.40909475745769</v>
+        <v>1.408816084066276</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.68963058426931</v>
+        <v>-7.692945330925077</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>3.240781393050152</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.92182490408526</v>
+        <v>-26.92512009471356</v>
       </c>
       <c r="F38" t="n">
-        <v>1.243181420422064</v>
+        <v>1.242682741721639</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.617361284762572</v>
+        <v>-7.620284910868988</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>2.926589391343905</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.15428016002081</v>
+        <v>-26.15690066770148</v>
       </c>
       <c r="F39" t="n">
-        <v>1.327604790999952</v>
+        <v>1.327218559457465</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.529329827116902</v>
+        <v>-7.53185255466023</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>2.489386078768173</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.52414095395101</v>
+        <v>-25.52704502402996</v>
       </c>
       <c r="F40" t="n">
-        <v>1.323414912115006</v>
+        <v>1.322886899373379</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.189529182845712</v>
+        <v>-7.191523897647413</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.930342989468507</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.95162358281467</v>
+        <v>-24.95395075008332</v>
       </c>
       <c r="F41" t="n">
-        <v>1.379306038617577</v>
+        <v>1.379247370535174</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.178054683729063</v>
+        <v>-7.179369826576263</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.259953197576234</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.27403167609459</v>
+        <v>-24.27649573555552</v>
       </c>
       <c r="F42" t="n">
-        <v>1.377061984465663</v>
+        <v>1.376441080593565</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.914072757949991</v>
+        <v>-6.915700797236673</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4862650526390391</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.59220588942777</v>
+        <v>-23.59471883895736</v>
       </c>
       <c r="F43" t="n">
-        <v>1.330508861078899</v>
+        <v>1.329785288062596</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.848452507782258</v>
+        <v>-6.849616091416584</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.3783104203861819</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.90553509695583</v>
+        <v>-22.90745647665453</v>
       </c>
       <c r="F44" t="n">
-        <v>1.441968439630826</v>
+        <v>1.441376869799929</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.768175015027515</v>
+        <v>-6.769245707531369</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.312148941831428</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.07413992320947</v>
+        <v>-22.07622752914165</v>
       </c>
       <c r="F45" t="n">
-        <v>1.486360621982414</v>
+        <v>1.485456155712035</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.61088099709826</v>
+        <v>-6.611281895661347</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.299759270245537</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.55254644759892</v>
+        <v>-21.55432115709161</v>
       </c>
       <c r="F46" t="n">
-        <v>1.475712365026273</v>
+        <v>1.474651450536153</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.49660535059099</v>
+        <v>-6.497754267204715</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.323376444383572</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.86350937580339</v>
+        <v>-20.86450673320424</v>
       </c>
       <c r="F47" t="n">
-        <v>1.557837902376711</v>
+        <v>1.557529894944095</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.474296812257257</v>
+        <v>-6.47475148989588</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.359760870955926</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.21873737218091</v>
+        <v>-20.21914804875774</v>
       </c>
       <c r="F48" t="n">
-        <v>1.604640365113687</v>
+        <v>1.604122130385794</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.444977438076368</v>
+        <v>-6.445383225646322</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.388987716675524</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.45199931424951</v>
+        <v>-19.45221931955852</v>
       </c>
       <c r="F49" t="n">
-        <v>1.749330523340035</v>
+        <v>1.748797621591542</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.20222358011344</v>
+        <v>-6.202164912031037</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.3943871563573</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.04971716221915</v>
+        <v>-19.0493113746492</v>
       </c>
       <c r="F50" t="n">
-        <v>1.739185834091187</v>
+        <v>1.738486706109218</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.215419009647244</v>
+        <v>-6.216303919890155</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.356059190952934</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.47287790901245</v>
+        <v>-18.47263345866911</v>
       </c>
       <c r="F51" t="n">
-        <v>1.716847961716252</v>
+        <v>1.716975075894792</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.276404481305141</v>
+        <v>-6.277426283740326</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.251819627949045</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.00990851474308</v>
+        <v>-18.01013340905896</v>
       </c>
       <c r="F52" t="n">
-        <v>1.720720055154849</v>
+        <v>1.720025816179747</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.278990765937738</v>
+        <v>-6.279773007036445</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.069220424139125</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.60724013117023</v>
+        <v>-17.60698101380628</v>
       </c>
       <c r="F53" t="n">
-        <v>1.807617263207395</v>
+        <v>1.806879023170491</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.186593425159913</v>
+        <v>-6.18710677088094</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.794053209099808</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.97846006900943</v>
+        <v>-16.97788316619913</v>
       </c>
       <c r="F54" t="n">
-        <v>1.861039441242175</v>
+        <v>1.860178976033598</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.189776168630274</v>
+        <v>-6.190714857948723</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.40514456472173</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.77302400046166</v>
+        <v>-16.77272577104278</v>
       </c>
       <c r="F55" t="n">
-        <v>1.851799218263706</v>
+        <v>1.851217426446543</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.417046541845683</v>
+        <v>-6.417941230102328</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.89806174109969</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.22226270988309</v>
+        <v>-16.22238982406163</v>
       </c>
       <c r="F56" t="n">
-        <v>1.887616082570724</v>
+        <v>1.887200516987037</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.320146425743428</v>
+        <v>-6.320576658347718</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.26776519489392</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.12699063306752</v>
+        <v>-16.12728886248641</v>
       </c>
       <c r="F57" t="n">
-        <v>1.928043280353244</v>
+        <v>1.927485933570416</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.498526730289687</v>
+        <v>-6.499626756834743</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.50423486161873</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.91387393473183</v>
+        <v>-15.91415260812325</v>
       </c>
       <c r="F58" t="n">
-        <v>1.817312163824488</v>
+        <v>1.816554367760116</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.655527407806927</v>
+        <v>-6.656666546406918</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.61093875256465</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.65858466316213</v>
+        <v>-15.65935223724024</v>
       </c>
       <c r="F59" t="n">
-        <v>1.87125257658716</v>
+        <v>1.870876123058408</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.42454627837953</v>
+        <v>-6.424810284750344</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.59596792528673</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43578284222309</v>
+        <v>-15.43678997763767</v>
       </c>
       <c r="F60" t="n">
-        <v>1.935298566543746</v>
+        <v>1.934971003083663</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.445099663248041</v>
+        <v>-6.444610762561349</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.46195227394069</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.29678348798983</v>
+        <v>-15.29743372590313</v>
       </c>
       <c r="F61" t="n">
-        <v>1.882761298751878</v>
+        <v>1.882306621113255</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.286778953876734</v>
+        <v>-6.286114048942834</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.21515760980031</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.26832946802438</v>
+        <v>-15.26969350094025</v>
       </c>
       <c r="F62" t="n">
-        <v>1.877789178768225</v>
+        <v>1.877344279143336</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.368107583107864</v>
+        <v>-6.367569792352504</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.87554687818745</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.2188087174694</v>
+        <v>-15.22088165638097</v>
       </c>
       <c r="F63" t="n">
-        <v>1.864129293582065</v>
+        <v>1.863733284025845</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.402027512750521</v>
+        <v>-6.401069267404605</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.45540395082329</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.26768411911795</v>
+        <v>-15.27013840056514</v>
       </c>
       <c r="F64" t="n">
-        <v>1.710619366967803</v>
+        <v>1.71010113223991</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.394454441113669</v>
+        <v>-6.393222411383206</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.962145386204218</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.32122363331754</v>
+        <v>-15.32418148247202</v>
       </c>
       <c r="F65" t="n">
-        <v>1.701838710634823</v>
+        <v>1.701359587961866</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.496830244906868</v>
+        <v>-6.495695995313744</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.420469998944954</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.3302878520488</v>
+        <v>-15.33343637247109</v>
       </c>
       <c r="F66" t="n">
-        <v>1.795047626552557</v>
+        <v>1.794959624428952</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.447798395038578</v>
+        <v>-6.447148157125278</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.844665580151533</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.21459439355012</v>
+        <v>-15.21797758630203</v>
       </c>
       <c r="F67" t="n">
-        <v>1.617635345365947</v>
+        <v>1.617767348551354</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.203289383610428</v>
+        <v>-6.201793347509152</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.239981681868709</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.34805450300317</v>
+        <v>-15.35179459325636</v>
       </c>
       <c r="F68" t="n">
-        <v>1.583451409352478</v>
+        <v>1.583045621782524</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.324536753909919</v>
+        <v>-6.323094496884178</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.622898767704574</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.26035549782445</v>
+        <v>-15.26446226359265</v>
       </c>
       <c r="F69" t="n">
-        <v>1.543664671469524</v>
+        <v>1.543038878590559</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.196444773996746</v>
+        <v>-6.195701644952976</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.002326131294953</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.31238430890215</v>
+        <v>-15.31678930408924</v>
       </c>
       <c r="F70" t="n">
-        <v>1.477130177017679</v>
+        <v>1.476875948660599</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.134007267299376</v>
+        <v>-6.133132135070198</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.377050009133082</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.34046676434571</v>
+        <v>-15.3448424254916</v>
       </c>
       <c r="F71" t="n">
-        <v>1.369332464609071</v>
+        <v>1.36898534512152</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.139854519512206</v>
+        <v>-6.139238504646975</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.748108568238627</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.45826738480403</v>
+        <v>-15.46283860622459</v>
       </c>
       <c r="F72" t="n">
-        <v>1.291328360047443</v>
+        <v>1.291030130628561</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.002888992135584</v>
+        <v>-6.002595651723569</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.117882448686009</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.56991763462377</v>
+        <v>-15.57441063193446</v>
       </c>
       <c r="F73" t="n">
-        <v>1.222364029182741</v>
+        <v>1.222730704697759</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.152927723874337</v>
+        <v>-6.153045060039143</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.480327600105324</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.68130387807269</v>
+        <v>-15.68566976120484</v>
       </c>
       <c r="F74" t="n">
-        <v>1.085437613861054</v>
+        <v>1.085295832661913</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.065815399519646</v>
+        <v>-6.0662211870896</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.827529441573895</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.94053368917712</v>
+        <v>-15.94525158080369</v>
       </c>
       <c r="F75" t="n">
-        <v>1.03167320534559</v>
+        <v>1.031330974864906</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.103074520852405</v>
+        <v>-6.103705202738237</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.160503531030386</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.96561429440439</v>
+        <v>-15.97013662575629</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8111887736614596</v>
+        <v>0.8105238687275592</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.231313170971585</v>
+        <v>-6.2322860833381</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.472081356596665</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.01721776188468</v>
+        <v>-16.02132941665976</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6672221884514151</v>
+        <v>0.6668310679020619</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.169105447596959</v>
+        <v>-6.170401034416691</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.755502150774131</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.15198812517806</v>
+        <v>-16.15566465834198</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6853066248521336</v>
+        <v>0.6851892886873275</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.14262169739888</v>
+        <v>-6.143594609765396</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.009911932669798</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.28125346673929</v>
+        <v>-16.28492022188948</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3998081798517682</v>
+        <v>0.3993877252612135</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.163028412061383</v>
+        <v>-6.16461733929313</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2319697791898319</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.75156614932277</v>
+        <v>-16.75483689491674</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3803499325214467</v>
+        <v>0.3797730297111508</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.131152087289098</v>
+        <v>-6.133200581166335</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.5747486240817365</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.21004743528832</v>
+        <v>-17.21289283728487</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2149939422686493</v>
+        <v>0.2146077107261631</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.237419540548361</v>
+        <v>-6.239888489016153</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.40783336235103</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.64183474376052</v>
+        <v>-17.64446014044805</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.0905689869135349</v>
+        <v>-0.09090632838735203</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.287996316586596</v>
+        <v>-6.290631491287863</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>2.260834211334166</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.11676753783324</v>
+        <v>-18.11902136999889</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.102405272538336</v>
+        <v>-0.10274750301902</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.339844234410229</v>
+        <v>-6.343349652333807</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>3.121026948284406</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.89388006833623</v>
+        <v>-18.89567433385639</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1997698442929472</v>
+        <v>-0.1997991783341487</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.372585913397958</v>
+        <v>-6.376120665362738</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>3.977617593838243</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.58244290646567</v>
+        <v>-19.58433984113003</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3571811983870078</v>
+        <v>-0.3573474246204829</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.473270120815205</v>
+        <v>-6.477494222748219</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>4.817435244740381</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.23246081445635</v>
+        <v>-20.23375151226921</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5180344133153765</v>
+        <v>-0.5185819820844709</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.730632331296475</v>
+        <v>-6.73520355271704</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>5.62340333195759</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.98431184647799</v>
+        <v>-20.98518697870717</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6187381767600906</v>
+        <v>-0.6193737476527895</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.062899015985749</v>
+        <v>-7.068115586312747</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>6.379406819002208</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.83197274607058</v>
+        <v>-21.83294076943022</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7349254249523243</v>
+        <v>-0.7354485486870842</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.358077694582605</v>
+        <v>-7.364022726932774</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>7.074135624865095</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.81884811619856</v>
+        <v>-22.81922945873418</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9451869432777354</v>
+        <v>-0.9460767425275141</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.434854658420638</v>
+        <v>-7.440711688647202</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>7.695524119669716</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.87359267965306</v>
+        <v>-23.87292288571229</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.193563159137616</v>
+        <v>-1.193993391741904</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.800386145832401</v>
+        <v>-7.805847166502745</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>8.22850098936534</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.08312808952095</v>
+        <v>-25.08218451119563</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.12026227918196</v>
+        <v>-1.120218278120158</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.170982644358288</v>
+        <v>-8.17687389763292</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>8.66958605230673</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.3509649062768</v>
+        <v>-26.34925375387338</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.332547846350274</v>
+        <v>-1.33180960631337</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.4567402067226</v>
+        <v>-8.463144805718258</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>9.015020531942044</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.60349913153921</v>
+        <v>-27.60152397276497</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.622118834070779</v>
+        <v>-1.62219705818065</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.761833791245559</v>
+        <v>-8.767954827842937</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>9.254527135636542</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.10237085679799</v>
+        <v>-29.09936411757484</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.86499491720538</v>
+        <v>-1.864594018642293</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.097508113721073</v>
+        <v>-9.103516703160512</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>9.396740965415725</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.73930813597845</v>
+        <v>-30.73614250403213</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.12563765129435</v>
+        <v>-2.124870077216244</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.367219955548171</v>
+        <v>-9.372827646424522</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>9.444347448784777</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.5740252989531</v>
+        <v>-32.57066899573896</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.147437732913923</v>
+        <v>-2.146386596437537</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.717898640098246</v>
+        <v>-9.723403661830393</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>9.404870337589831</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.29463059715051</v>
+        <v>-34.29105184412393</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.509561582539447</v>
+        <v>-2.508999346749751</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.08023271701905</v>
+        <v>-10.08571818272372</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>9.272605421993147</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.28181143926989</v>
+        <v>-36.27770956250855</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.904818231702053</v>
+        <v>-2.903869764369871</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.50226645679174</v>
+        <v>-10.50703323848699</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>9.08044567161182</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.31314245790095</v>
+        <v>-38.3083463421645</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.181824471774587</v>
+        <v>-3.181164455847553</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.83384379151278</v>
+        <v>-10.83824878669988</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>8.798159437496441</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.51297554270366</v>
+        <v>-40.50802297874748</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.544036323523715</v>
+        <v>-3.543606090919426</v>
       </c>
       <c r="G100" t="n">
-        <v>-11.02555641778512</v>
+        <v>-11.02972185163573</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>8.473436118663754</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.42337453197815</v>
+        <v>-42.41859308326231</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.971120407389937</v>
+        <v>-3.970699952799382</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.27249526562613</v>
+        <v>-11.27593223745357</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>8.030074428234968</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.69324264014942</v>
+        <v>-44.68825340864174</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.215883647175167</v>
+        <v>-4.2158934251889</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.41776232666277</v>
+        <v>-11.42111618537347</v>
       </c>
     </row>
   </sheetData>
